--- a/information/Mau_Thong_Tin.xlsx
+++ b/information/Mau_Thong_Tin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Họ</t>
   </si>
@@ -66,9 +66,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>31/1/1986</t>
-  </si>
-  <si>
     <t>Phòng (Đơn Vị)</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>PC Khu Vực</t>
-  </si>
-  <si>
-    <t>PC Công Vụ</t>
   </si>
   <si>
     <t>PC Kiêm Nhiệm</t>
@@ -146,6 +140,9 @@
   </si>
   <si>
     <t>Thời gian công tác tại đơn vị hiện tại (d/m/Y)</t>
+  </si>
+  <si>
+    <t>PC Công Vụ (%)</t>
   </si>
 </sst>
 </file>
@@ -335,9 +332,67 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -345,135 +400,81 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -483,154 +484,7 @@
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -945,7 +799,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -959,299 +813,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="6" t="s">
+      <c r="M1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="5" t="s">
+      <c r="N1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="27"/>
+      <c r="W1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="24">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="33" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="35"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="16"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="23"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="25"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26">
-        <v>41102</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="D4" s="4">
+        <v>31753</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="7">
         <v>37288</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="7">
         <v>36800</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="30">
+      <c r="I4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="8">
         <v>4</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="5">
         <v>3.33</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="5">
         <v>3</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="5">
         <v>1.2</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="5">
         <v>2.4</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="5">
         <v>7.6</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="5">
         <v>12</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="5">
         <v>1</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="5">
         <v>2</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="5">
         <v>12</v>
       </c>
-      <c r="V4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="27">
+      <c r="V4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="5">
         <v>1</v>
       </c>
-      <c r="X4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="31">
+      <c r="X4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="9">
         <v>40664</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="28" t="s">
+      <c r="D5" s="4">
+        <v>31808</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="7">
         <v>37288</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="7">
         <v>36800</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="30">
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27">
+      <c r="L5" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="M5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="5">
         <v>1.2</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="5">
         <v>1.3</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="5">
         <v>1.5</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="5">
         <v>2.5</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="5">
         <v>10</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="5">
         <v>2.4</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="5">
         <v>1</v>
       </c>
-      <c r="U5" s="27">
+      <c r="U5" s="5">
         <v>200000</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="V5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>40912</v>
+      </c>
+      <c r="Z5" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="W5" s="27">
-        <v>1.2</v>
-      </c>
-      <c r="X5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="31">
-        <v>40912</v>
-      </c>
-      <c r="Z5" s="32" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="D1:D3"/>
@@ -1266,9 +1125,6 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:Z5">
     <cfRule type="expression" dxfId="2" priority="28">
